--- a/biology/Écologie/Forêt_des_Martyrs/Forêt_des_Martyrs.xlsx
+++ b/biology/Écologie/Forêt_des_Martyrs/Forêt_des_Martyrs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_des_Martyrs</t>
+          <t>Forêt_des_Martyrs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt des Martyrs, hébreu: יער הקדושים, (Ya'ar HaKdoshim) est une forêt à la périphérie de Jérusalem en Israël. Elle est créée en 1951 par le Fonds national juif. Elle est à l'ouest de la forêt d'Eshtaol près de la ville de Beit Meir. Cette forêt est plantée de six millions d'arbres, symbolisant les six millions de Juifs assassinés des nazis pendant Shoah.
